--- a/test/benchmark-4.4.38-nort/mixbench/mixbench-cuda-alt.xlsx
+++ b/test/benchmark-4.4.38-nort/mixbench/mixbench-cuda-alt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loki/Desktop/devel/nvidia-jetson-rt/test/benchmark-4.4.38-nort/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/loki/Desktop/devel/nvidia-jetson-rt/test/benchmark-4.4.38-nort/mixbench/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="mixbench-cuda-alt" type="6" refreshedVersion="0" background="1" saveData="1">
-    <textPr fileType="mac" codePage="10000" sourceFile="/Users/loki/Desktop/devel/nvidia-jetson-rt/test/benchmark-4.4.38-nort/csv/mixbench-cuda-alt.csv" comma="1">
+    <textPr fileType="mac" sourceFile="/Users/loki/Desktop/devel/nvidia-jetson-rt/test/benchmark-4.4.38-nort/csv/mixbench-cuda-alt.csv" comma="1">
       <textFields count="17">
         <textField/>
         <textField/>
@@ -1257,11 +1257,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-634066784"/>
-        <c:axId val="-634063728"/>
+        <c:axId val="852547728"/>
+        <c:axId val="852552336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-634066784"/>
+        <c:axId val="852547728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="950.0"/>
@@ -1331,6 +1331,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1363,13 +1364,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-634063728"/>
+        <c:crossAx val="852552336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="50.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-634063728"/>
+        <c:axId val="852552336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1471,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-634066784"/>
+        <c:crossAx val="852547728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="3.0"/>
@@ -2125,15 +2126,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:colOff>1536700</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
